--- a/biology/Zoologie/Cambraster/Cambraster.xlsx
+++ b/biology/Zoologie/Cambraster/Cambraster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambraster est un  genre éteint d'édrioastéroïdes de la famille des Stromatocystitidae.
-Selon Fossilworks, les auteurs sont Cabibel et al., 1958 alors que sur Encyclopedia of Life, il s'agit de Jaekel, 1923[6].
+Selon Fossilworks, les auteurs sont Cabibel et al., 1958 alors que sur Encyclopedia of Life, il s'agit de Jaekel, 1923.
 les différentes espèces sont trouvées dans des terrains datant du Cambrien situés en France, en Australie et en Espagne.
 </t>
         </is>
